--- a/MyFirstTest/test_data_source/register/registers.xlsx
+++ b/MyFirstTest/test_data_source/register/registers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipupo\Documents\GitHub\Automatizaci-nTFNU\MyFirstTest\test_data_source\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E690DE6-8B7A-4B8D-9253-B8893B9D2990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA90F2B-D24D-419C-947B-6A4BD2D35DD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7650" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7650" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POTENTIAL-RESCLIENTS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>UAT</t>
   </si>
@@ -76,15 +76,9 @@
     <t>NAME PLAN</t>
   </si>
   <si>
-    <t>77995566</t>
-  </si>
-  <si>
     <t>e2e</t>
   </si>
   <si>
-    <t>9157066484513108443</t>
-  </si>
-  <si>
     <t>ICCID</t>
   </si>
   <si>
@@ -109,20 +103,41 @@
     <t>LINK  SO</t>
   </si>
   <si>
-    <t>PLKI41</t>
-  </si>
-  <si>
-    <t>89598071102044547268</t>
-  </si>
-  <si>
-    <t>95563864</t>
+    <t>Procesamiento</t>
+  </si>
+  <si>
+    <t>NativoAut2</t>
+  </si>
+  <si>
+    <t>5566880011</t>
+  </si>
+  <si>
+    <t>9157101041013576701</t>
+  </si>
+  <si>
+    <t>PLTTEJ</t>
+  </si>
+  <si>
+    <t>https://noprd-e2e-toms.temu.com.uy:7002/common/uobject.jsp?object=9157101132513589622</t>
+  </si>
+  <si>
+    <t>PLC280</t>
+  </si>
+  <si>
+    <t>95877104</t>
+  </si>
+  <si>
+    <t>89598071102044547565</t>
+  </si>
+  <si>
+    <t>915710104101357</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +282,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -566,7 +589,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -609,8 +632,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -618,8 +642,9 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -651,6 +676,7 @@
     <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,7 +1002,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1007,16 +1033,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -1030,9 +1056,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0019CDEF-97B4-4499-A41D-540860F326F8}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -1046,10 +1074,21 @@
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1101,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1126,7 +1165,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1156,14 +1195,17 @@
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -1177,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839145ED-37FD-4D66-990C-E36B19483E3A}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1188,7 +1230,8 @@
     <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1206,6 +1249,23 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1217,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961B6476-8C92-43E9-8F44-486E74A52A12}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1241,27 +1301,27 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1272,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319B4778-E3E9-408F-B070-D26A07EB60CD}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1287,33 +1347,47 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>22</v>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{85D3792F-65EC-42B7-BBDD-5FF3EC758C58}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADDCCCF-6AB2-46AA-A7AA-8F4CA3727986}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
@@ -1323,16 +1397,30 @@
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1342,16 +1430,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB252CC-3182-4674-A162-127E69CDAA21}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1360,30 +1448,44 @@
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{09E1CD66-1B3B-4C3E-A809-9FBB24CB8F19}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCFAA35-B389-4AC3-B2A7-BC50E5D70A93}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1391,11 +1493,22 @@
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/MyFirstTest/test_data_source/register/registers.xlsx
+++ b/MyFirstTest/test_data_source/register/registers.xlsx
@@ -1,35 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20344"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipupo\Documents\GitHub\Automatizaci-nTFNU\MyFirstTest\test_data_source\register\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seolivera\Documents\GitHub\Automatizaci-nTFNU\MyFirstTest\test_data_source\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA90F2B-D24D-419C-947B-6A4BD2D35DD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7650" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="4" firstSheet="1" windowHeight="7656" windowWidth="14796" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="POTENTIAL-RESCLIENTS" sheetId="1" r:id="rId1"/>
-    <sheet name="POTENTIAL-ENTCLIENTS" sheetId="3" r:id="rId2"/>
-    <sheet name="REAL-RESCLIENTS" sheetId="2" r:id="rId3"/>
-    <sheet name="REAL-ENTCLIENTS" sheetId="4" r:id="rId4"/>
-    <sheet name="NEW-PLAN" sheetId="5" r:id="rId5"/>
-    <sheet name="REAL-PLAN" sheetId="6" r:id="rId6"/>
-    <sheet name="CHANGE-PLAN" sheetId="7" r:id="rId7"/>
-    <sheet name="CHANGED-PLAN" sheetId="8" r:id="rId8"/>
-    <sheet name="SIM CARD LOST" sheetId="9" r:id="rId9"/>
-    <sheet name="REGISTERED SIM CARD LOST" sheetId="10" r:id="rId10"/>
+    <sheet name="POTENTIAL-RESCLIENTS" r:id="rId1" sheetId="1"/>
+    <sheet name="POTENTIAL-ENTCLIENTS" r:id="rId2" sheetId="3"/>
+    <sheet name="REAL-RESCLIENTS" r:id="rId3" sheetId="2"/>
+    <sheet name="REAL-ENTCLIENTS" r:id="rId4" sheetId="4"/>
+    <sheet name="NEW-PLAN" r:id="rId5" sheetId="5"/>
+    <sheet name="REAL-PLAN" r:id="rId6" sheetId="6"/>
+    <sheet name="CHANGE-PLAN" r:id="rId7" sheetId="7"/>
+    <sheet name="CHANGED-PLAN" r:id="rId8" sheetId="8"/>
+    <sheet name="SIM CARD LOST" r:id="rId9" sheetId="9"/>
+    <sheet name="REGISTERED SIM CARD LOST" r:id="rId10" sheetId="10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>UAT</t>
   </si>
@@ -112,9 +111,6 @@
     <t>5566880011</t>
   </si>
   <si>
-    <t>9157101041013576701</t>
-  </si>
-  <si>
     <t>PLTTEJ</t>
   </si>
   <si>
@@ -124,19 +120,41 @@
     <t>PLC280</t>
   </si>
   <si>
-    <t>95877104</t>
-  </si>
-  <si>
-    <t>89598071102044547565</t>
-  </si>
-  <si>
     <t>915710104101357</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
+  <si>
+    <t>Nativo SO Automation</t>
+  </si>
+  <si>
+    <t>Fix 14</t>
+  </si>
+  <si>
+    <t>asds222a1</t>
+  </si>
+  <si>
+    <t>9157109635613262743</t>
+  </si>
+  <si>
+    <t>89598071102044553266</t>
+  </si>
+  <si>
+    <t>95899424</t>
+  </si>
+  <si>
+    <t>PLTTEF</t>
+  </si>
+  <si>
+    <t>https://noprd-uat-toms.temu.com.uy:7002/common/uobject.jsp?object=9157109731313288769</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="21">
     <font>
       <sz val="11"/>
@@ -590,107 +608,107 @@
     </border>
   </borders>
   <cellStyleXfs count="43">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="9" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="10" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="11" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="13" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="19" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle builtinId="30" customBuiltin="1" name="20% - Énfasis1" xfId="19"/>
+    <cellStyle builtinId="34" customBuiltin="1" name="20% - Énfasis2" xfId="23"/>
+    <cellStyle builtinId="38" customBuiltin="1" name="20% - Énfasis3" xfId="27"/>
+    <cellStyle builtinId="42" customBuiltin="1" name="20% - Énfasis4" xfId="31"/>
+    <cellStyle builtinId="46" customBuiltin="1" name="20% - Énfasis5" xfId="35"/>
+    <cellStyle builtinId="50" customBuiltin="1" name="20% - Énfasis6" xfId="39"/>
+    <cellStyle builtinId="31" customBuiltin="1" name="40% - Énfasis1" xfId="20"/>
+    <cellStyle builtinId="35" customBuiltin="1" name="40% - Énfasis2" xfId="24"/>
+    <cellStyle builtinId="39" customBuiltin="1" name="40% - Énfasis3" xfId="28"/>
+    <cellStyle builtinId="43" customBuiltin="1" name="40% - Énfasis4" xfId="32"/>
+    <cellStyle builtinId="47" customBuiltin="1" name="40% - Énfasis5" xfId="36"/>
+    <cellStyle builtinId="51" customBuiltin="1" name="40% - Énfasis6" xfId="40"/>
+    <cellStyle builtinId="32" customBuiltin="1" name="60% - Énfasis1" xfId="21"/>
+    <cellStyle builtinId="36" customBuiltin="1" name="60% - Énfasis2" xfId="25"/>
+    <cellStyle builtinId="40" customBuiltin="1" name="60% - Énfasis3" xfId="29"/>
+    <cellStyle builtinId="44" customBuiltin="1" name="60% - Énfasis4" xfId="33"/>
+    <cellStyle builtinId="48" customBuiltin="1" name="60% - Énfasis5" xfId="37"/>
+    <cellStyle builtinId="52" customBuiltin="1" name="60% - Énfasis6" xfId="41"/>
+    <cellStyle builtinId="26" customBuiltin="1" name="Bueno" xfId="6"/>
+    <cellStyle builtinId="22" customBuiltin="1" name="Cálculo" xfId="11"/>
+    <cellStyle builtinId="23" customBuiltin="1" name="Celda de comprobación" xfId="13"/>
+    <cellStyle builtinId="24" customBuiltin="1" name="Celda vinculada" xfId="12"/>
+    <cellStyle builtinId="16" customBuiltin="1" name="Encabezado 1" xfId="2"/>
+    <cellStyle builtinId="19" customBuiltin="1" name="Encabezado 4" xfId="5"/>
+    <cellStyle builtinId="29" customBuiltin="1" name="Énfasis1" xfId="18"/>
+    <cellStyle builtinId="33" customBuiltin="1" name="Énfasis2" xfId="22"/>
+    <cellStyle builtinId="37" customBuiltin="1" name="Énfasis3" xfId="26"/>
+    <cellStyle builtinId="41" customBuiltin="1" name="Énfasis4" xfId="30"/>
+    <cellStyle builtinId="45" customBuiltin="1" name="Énfasis5" xfId="34"/>
+    <cellStyle builtinId="49" customBuiltin="1" name="Énfasis6" xfId="38"/>
+    <cellStyle builtinId="20" customBuiltin="1" name="Entrada" xfId="9"/>
+    <cellStyle builtinId="8" name="Hipervínculo" xfId="42"/>
+    <cellStyle builtinId="27" customBuiltin="1" name="Incorrecto" xfId="7"/>
+    <cellStyle builtinId="28" customBuiltin="1" name="Neutral" xfId="8"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="10" customBuiltin="1" name="Notas" xfId="15"/>
+    <cellStyle builtinId="21" customBuiltin="1" name="Salida" xfId="10"/>
+    <cellStyle builtinId="11" customBuiltin="1" name="Texto de advertencia" xfId="14"/>
+    <cellStyle builtinId="53" customBuiltin="1" name="Texto explicativo" xfId="16"/>
+    <cellStyle builtinId="15" customBuiltin="1" name="Título" xfId="1"/>
+    <cellStyle builtinId="17" customBuiltin="1" name="Título 2" xfId="3"/>
+    <cellStyle builtinId="18" customBuiltin="1" name="Título 3" xfId="4"/>
+    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="17"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -707,10 +725,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -745,7 +763,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -797,7 +815,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -908,21 +926,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -939,7 +957,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -991,27 +1009,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="17.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="21.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="2" width="25.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="2" width="16.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="2" width="29.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1033,40 +1051,40 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0019CDEF-97B4-4499-A41D-540860F326F8}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="23.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="19.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1082,36 +1100,36 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EF1752-CF33-450D-BCD7-878A30A4887B}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="21.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="2" width="21.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="2" width="18.88671875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.44140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="2" width="15.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1155,26 +1173,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D484ABA6-0855-40CC-A318-BE4F264476CB}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="22.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="47.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="2" width="24.88671875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="2" width="26.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1196,7 +1214,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -1212,26 +1230,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839145ED-37FD-4D66-990C-E36B19483E3A}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="21.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="23.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="2" width="22.33203125" collapsed="false"/>
+    <col min="4" max="4" style="2" width="11.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="2" width="19.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1253,7 +1271,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -1269,25 +1287,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961B6476-8C92-43E9-8F44-486E74A52A12}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="33.44140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="27.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="2" width="24.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="2" width="38.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="2" width="23.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1307,42 +1325,42 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1">
+    <row customFormat="1" r="2" s="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319B4778-E3E9-408F-B070-D26A07EB60CD}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="30.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1358,10 +1376,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1369,28 +1387,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{85D3792F-65EC-42B7-BBDD-5FF3EC758C58}"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADDCCCF-6AB2-46AA-A7AA-8F4CA3727986}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="20.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="23.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="21.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1413,34 +1431,34 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB252CC-3182-4674-A162-127E69CDAA21}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="49.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="25.5546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1456,10 +1474,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1467,26 +1485,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{09E1CD66-1B3B-4C3E-A809-9FBB24CB8F19}"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCFAA35-B389-4AC3-B2A7-BC50E5D70A93}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="27" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="27.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1505,14 +1523,14 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/MyFirstTest/test_data_source/register/registers.xlsx
+++ b/MyFirstTest/test_data_source/register/registers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipupo\Documents\GitHub\Automatizaci-nTFNU\MyFirstTest\test_data_source\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA90F2B-D24D-419C-947B-6A4BD2D35DD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579282BA-C9DB-47D6-878E-4777BDF09BB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7650" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7650" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POTENTIAL-RESCLIENTS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>UAT</t>
   </si>
@@ -124,13 +124,16 @@
     <t>PLC280</t>
   </si>
   <si>
-    <t>95877104</t>
-  </si>
-  <si>
     <t>89598071102044547565</t>
   </si>
   <si>
     <t>915710104101357</t>
+  </si>
+  <si>
+    <t>95877776</t>
+  </si>
+  <si>
+    <t>PLR314</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0019CDEF-97B4-4499-A41D-540860F326F8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1196,7 +1199,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -1253,7 +1256,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -1277,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961B6476-8C92-43E9-8F44-486E74A52A12}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1315,13 +1318,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1505,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
